--- a/ballcat-sample-excel/src/main/resources/excel/template.xlsx
+++ b/ballcat-sample-excel/src/main/resources/excel/template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="23430" windowHeight="12015"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -32,10 +32,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -45,13 +45,6 @@
       <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,51 +520,54 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,102 +577,99 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,16 +1000,16 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
+    <row r="1" ht="24" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1018,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>